--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.8411727423329</v>
+        <v>371.9294355698303</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.8876764881264</v>
+        <v>508.8902621152956</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.8640105215571</v>
+        <v>460.3224897309797</v>
       </c>
       <c r="AD2" t="n">
-        <v>298841.1727423329</v>
+        <v>371929.4355698304</v>
       </c>
       <c r="AE2" t="n">
-        <v>408887.6764881264</v>
+        <v>508890.2621152956</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.426492944410341e-06</v>
+        <v>2.63938542359526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>369864.0105215571</v>
+        <v>460322.4897309797</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.4457498479332</v>
+        <v>270.142900956628</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.9918444387883</v>
+        <v>369.6214349525292</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.0747280573643</v>
+        <v>334.3452839676011</v>
       </c>
       <c r="AD3" t="n">
-        <v>221445.7498479332</v>
+        <v>270142.900956628</v>
       </c>
       <c r="AE3" t="n">
-        <v>302991.8444387883</v>
+        <v>369621.4349525291</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793468139488709e-06</v>
+        <v>3.318385613891504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.470052083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>274074.7280573644</v>
+        <v>334345.2839676011</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.6780391610553</v>
+        <v>240.4604416157673</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.2623494183119</v>
+        <v>329.0085845845222</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.2323988774241</v>
+        <v>297.6084670383219</v>
       </c>
       <c r="AD4" t="n">
-        <v>191678.0391610553</v>
+        <v>240460.4416157673</v>
       </c>
       <c r="AE4" t="n">
-        <v>262262.349418312</v>
+        <v>329008.5845845222</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.946518410073168e-06</v>
+        <v>3.601568685241998e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.805989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>237232.3988774241</v>
+        <v>297608.4670383219</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.4540217920051</v>
+        <v>232.2364242467171</v>
       </c>
       <c r="AB5" t="n">
-        <v>251.0098860359432</v>
+        <v>317.7561212021534</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.0538548073334</v>
+        <v>287.4299229682313</v>
       </c>
       <c r="AD5" t="n">
-        <v>183454.021792005</v>
+        <v>232236.4242467171</v>
       </c>
       <c r="AE5" t="n">
-        <v>251009.8860359432</v>
+        <v>317756.1212021534</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.004615424482916e-06</v>
+        <v>3.709063372536704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>227053.8548073334</v>
+        <v>287429.9229682313</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.8187417023547</v>
+        <v>226.4305519564746</v>
       </c>
       <c r="AB6" t="n">
-        <v>243.299447206276</v>
+        <v>309.8122705976394</v>
       </c>
       <c r="AC6" t="n">
-        <v>220.0792894378984</v>
+        <v>280.2442223161451</v>
       </c>
       <c r="AD6" t="n">
-        <v>177818.7417023547</v>
+        <v>226430.5519564746</v>
       </c>
       <c r="AE6" t="n">
-        <v>243299.447206276</v>
+        <v>309812.2705976394</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.043175596361142e-06</v>
+        <v>3.780409786120814e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>220079.2894378983</v>
+        <v>280244.2223161451</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.0465692337579</v>
+        <v>301.8651298973471</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.5470384833534</v>
+        <v>413.025188075191</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.809215863301</v>
+        <v>373.6066438097863</v>
       </c>
       <c r="AD2" t="n">
-        <v>243046.5692337579</v>
+        <v>301865.1298973471</v>
       </c>
       <c r="AE2" t="n">
-        <v>332547.0384833534</v>
+        <v>413025.188075191</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.646909568507477e-06</v>
+        <v>3.139263809079279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.544270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>300809.215863301</v>
+        <v>373606.6438097863</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.7346525876755</v>
+        <v>241.3825315421176</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.0256133542505</v>
+        <v>330.2702287014906</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.1635197289457</v>
+        <v>298.7497016114958</v>
       </c>
       <c r="AD3" t="n">
-        <v>182734.6525876755</v>
+        <v>241382.5315421176</v>
       </c>
       <c r="AE3" t="n">
-        <v>250025.6133542504</v>
+        <v>330270.2287014906</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.982424684032899e-06</v>
+        <v>3.778807400123288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.9296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>226163.5197289457</v>
+        <v>298749.7016114958</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.5261390188427</v>
+        <v>214.4103953491187</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.2166541371186</v>
+        <v>293.36576203558</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.3405383739326</v>
+        <v>265.3673454484237</v>
       </c>
       <c r="AD4" t="n">
-        <v>167526.1390188427</v>
+        <v>214410.3953491187</v>
       </c>
       <c r="AE4" t="n">
-        <v>229216.6541371186</v>
+        <v>293365.76203558</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.12462320978527e-06</v>
+        <v>4.049859736046868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>207340.5383739326</v>
+        <v>265367.3454484238</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.049283865741</v>
+        <v>210.9335401960171</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.4594675286235</v>
+        <v>288.608575427085</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.0373709785975</v>
+        <v>261.0641780530887</v>
       </c>
       <c r="AD5" t="n">
-        <v>164049.283865741</v>
+        <v>210933.5401960171</v>
       </c>
       <c r="AE5" t="n">
-        <v>224459.4675286236</v>
+        <v>288608.575427085</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.156689713809578e-06</v>
+        <v>4.110983441617681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>203037.3709785975</v>
+        <v>261064.1780530886</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.4406434943578</v>
+        <v>179.1238212585285</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.0523518821511</v>
+        <v>245.0851146310786</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.1048993517051</v>
+        <v>221.6945352698783</v>
       </c>
       <c r="AD2" t="n">
-        <v>137440.6434943578</v>
+        <v>179123.8212585285</v>
       </c>
       <c r="AE2" t="n">
-        <v>188052.3518821511</v>
+        <v>245085.1146310786</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.34137415772887e-06</v>
+        <v>4.986514211475195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.493489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>170104.8993517051</v>
+        <v>221694.5352698783</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.2788981875885</v>
+        <v>178.9620759517592</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.8310448177302</v>
+        <v>244.8638075666577</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.904713522906</v>
+        <v>221.4943494410792</v>
       </c>
       <c r="AD3" t="n">
-        <v>137278.8981875885</v>
+        <v>178962.0759517592</v>
       </c>
       <c r="AE3" t="n">
-        <v>187831.0448177302</v>
+        <v>244863.8075666577</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.352097844289851e-06</v>
+        <v>5.009352857429844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.4609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>169904.713522906</v>
+        <v>221494.3494410792</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.7873830316065</v>
+        <v>218.5893158703867</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.1518085388543</v>
+        <v>299.0835454537378</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.3274955836467</v>
+        <v>270.5394316421138</v>
       </c>
       <c r="AD2" t="n">
-        <v>174787.3830316065</v>
+        <v>218589.3158703868</v>
       </c>
       <c r="AE2" t="n">
-        <v>239151.8085388543</v>
+        <v>299083.5454537378</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073866734767284e-06</v>
+        <v>4.210666472971091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.092447916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>216327.4955836467</v>
+        <v>270539.4316421138</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.3550742001432</v>
+        <v>191.0716661843518</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.6177133676129</v>
+        <v>261.4326831602989</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.3756017761032</v>
+        <v>236.4819148026316</v>
       </c>
       <c r="AD3" t="n">
-        <v>147355.0742001432</v>
+        <v>191071.6661843518</v>
       </c>
       <c r="AE3" t="n">
-        <v>201617.7133676129</v>
+        <v>261432.6831602989</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.277783903639014e-06</v>
+        <v>4.624688826402461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>182375.6017761032</v>
+        <v>236481.9148026316</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.3628779055947</v>
+        <v>169.5488310935681</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.9999966377443</v>
+        <v>231.984190668633</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.1073653797429</v>
+        <v>209.8439451031421</v>
       </c>
       <c r="AD2" t="n">
-        <v>129362.8779055947</v>
+        <v>169548.8310935681</v>
       </c>
       <c r="AE2" t="n">
-        <v>176999.9966377442</v>
+        <v>231984.190668633</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.371941220231551e-06</v>
+        <v>5.281849800311271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>160107.3653797429</v>
+        <v>209843.9451031421</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.28638636253</v>
+        <v>312.6725380004923</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.5576080277813</v>
+        <v>427.8123606311098</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.4826363143709</v>
+        <v>386.9825493708951</v>
       </c>
       <c r="AD2" t="n">
-        <v>253286.38636253</v>
+        <v>312672.5380004923</v>
       </c>
       <c r="AE2" t="n">
-        <v>346557.6080277812</v>
+        <v>427812.3606311098</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.588539773044053e-06</v>
+        <v>3.003553289034048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>313482.6363143709</v>
+        <v>386982.5493708951</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.5725949135684</v>
+        <v>247.9962648779146</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.4322729989998</v>
+        <v>339.3194304288456</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.24084203217</v>
+        <v>306.9352602266293</v>
       </c>
       <c r="AD3" t="n">
-        <v>200572.5949135684</v>
+        <v>247996.2648779146</v>
       </c>
       <c r="AE3" t="n">
-        <v>274432.2729989999</v>
+        <v>339319.4304288456</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940663217855201e-06</v>
+        <v>3.669335505353282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.02734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>248240.84203217</v>
+        <v>306935.2602266293</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.0207987395251</v>
+        <v>221.5297200498918</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.1029340911169</v>
+        <v>303.1067361736118</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.3787242410964</v>
+        <v>274.178654686268</v>
       </c>
       <c r="AD4" t="n">
-        <v>174020.7987395251</v>
+        <v>221529.7200498918</v>
       </c>
       <c r="AE4" t="n">
-        <v>238102.9340911169</v>
+        <v>303106.7361736118</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.069571746376958e-06</v>
+        <v>3.91307106765785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>215378.7242410964</v>
+        <v>274178.654686268</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.4550222026451</v>
+        <v>215.7933513124196</v>
       </c>
       <c r="AB5" t="n">
-        <v>230.4875930886303</v>
+        <v>295.2579833962785</v>
       </c>
       <c r="AC5" t="n">
-        <v>208.4901806956865</v>
+        <v>267.0789758582071</v>
       </c>
       <c r="AD5" t="n">
-        <v>168455.0222026451</v>
+        <v>215793.3513124196</v>
       </c>
       <c r="AE5" t="n">
-        <v>230487.5930886304</v>
+        <v>295257.9833962785</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.115779722722886e-06</v>
+        <v>4.000439430533313e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.36328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>208490.1806956865</v>
+        <v>267078.975858207</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.0581633139295</v>
+        <v>164.2565192531241</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.1100962228264</v>
+        <v>224.7430161282209</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.7795887938958</v>
+        <v>203.2938580978124</v>
       </c>
       <c r="AD2" t="n">
-        <v>125058.1633139295</v>
+        <v>164256.5192531241</v>
       </c>
       <c r="AE2" t="n">
-        <v>171110.0962228264</v>
+        <v>224743.0161282209</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.367863401510678e-06</v>
+        <v>5.428484898546013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>154779.5887938958</v>
+        <v>203293.8580978124</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.8191233492758</v>
+        <v>258.7102358279917</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.1378281976873</v>
+        <v>353.9787581499403</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.783621436457</v>
+        <v>320.1955222844165</v>
       </c>
       <c r="AD2" t="n">
-        <v>201819.1233492758</v>
+        <v>258710.2358279917</v>
       </c>
       <c r="AE2" t="n">
-        <v>276137.8281976873</v>
+        <v>353978.7581499403</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.846221619503157e-06</v>
+        <v>3.618568859564922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>249783.621436457</v>
+        <v>320195.5222844165</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.7361757319188</v>
+        <v>207.1467461979539</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.2945709328009</v>
+        <v>283.427316817377</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.1745276719189</v>
+        <v>256.3774114931473</v>
       </c>
       <c r="AD3" t="n">
-        <v>161736.1757319188</v>
+        <v>207146.7461979539</v>
       </c>
       <c r="AE3" t="n">
-        <v>221294.5709328009</v>
+        <v>283427.316817377</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.161256040305858e-06</v>
+        <v>4.236031970583257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.493489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>200174.5276719189</v>
+        <v>256377.4114931473</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.9395838030957</v>
+        <v>202.3501542691309</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.7316622450872</v>
+        <v>276.8644081296633</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.2379737782583</v>
+        <v>250.4408575994868</v>
       </c>
       <c r="AD4" t="n">
-        <v>156939.5838030957</v>
+        <v>202350.1542691308</v>
       </c>
       <c r="AE4" t="n">
-        <v>214731.6622450872</v>
+        <v>276864.4081296633</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.207380482868301e-06</v>
+        <v>4.326435240568883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.337239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>194237.9737782583</v>
+        <v>250440.8575994868</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.0531120164634</v>
+        <v>291.111906145897</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.8735494384413</v>
+        <v>398.3121529397064</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.4407054219685</v>
+        <v>360.2978000977578</v>
       </c>
       <c r="AD2" t="n">
-        <v>233053.1120164634</v>
+        <v>291111.906145897</v>
       </c>
       <c r="AE2" t="n">
-        <v>318873.5494384413</v>
+        <v>398312.1529397065</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708013484107922e-06</v>
+        <v>3.284002788690104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.290364583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>288440.7054219685</v>
+        <v>360297.8000977578</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.7947495562544</v>
+        <v>222.378258620272</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.5301318597512</v>
+        <v>304.2677440804852</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.5742736612866</v>
+        <v>275.2288576279945</v>
       </c>
       <c r="AD3" t="n">
-        <v>175794.7495562544</v>
+        <v>222378.258620272</v>
       </c>
       <c r="AE3" t="n">
-        <v>240530.1318597512</v>
+        <v>304267.7440804851</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.038354553561762e-06</v>
+        <v>3.91915058078841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>217574.2736612865</v>
+        <v>275228.8576279945</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.0581164762349</v>
+        <v>209.4710333396604</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.1033085790829</v>
+        <v>286.6075090249699</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.8106419358195</v>
+        <v>259.2540906198765</v>
       </c>
       <c r="AD4" t="n">
-        <v>163058.1164762349</v>
+        <v>209471.0333396604</v>
       </c>
       <c r="AE4" t="n">
-        <v>223103.3085790829</v>
+        <v>286607.5090249699</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.158429827184077e-06</v>
+        <v>4.150019679362513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.350260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>201810.6419358196</v>
+        <v>259254.0906198765</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.4058779242328</v>
+        <v>209.8187947876582</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.5791311343855</v>
+        <v>287.0833315802726</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.2410526542654</v>
+        <v>259.6845013383223</v>
       </c>
       <c r="AD5" t="n">
-        <v>163405.8779242327</v>
+        <v>209818.7947876582</v>
       </c>
       <c r="AE5" t="n">
-        <v>223579.1311343855</v>
+        <v>287083.3315802726</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.152604006965699e-06</v>
+        <v>4.1388183568779e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>202241.0526542654</v>
+        <v>259684.5013383223</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.1689457344712</v>
+        <v>347.5479715852983</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.9172205536572</v>
+        <v>475.5304674573825</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.417752486798</v>
+        <v>430.1465070544519</v>
       </c>
       <c r="AD2" t="n">
-        <v>287168.9457344712</v>
+        <v>347547.9715852983</v>
       </c>
       <c r="AE2" t="n">
-        <v>392917.2205536572</v>
+        <v>475530.4674573825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.478435298642005e-06</v>
+        <v>2.75421282733919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.35807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>355417.752486798</v>
+        <v>430146.5070544519</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.2341418337772</v>
+        <v>262.5203122452375</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.1246042001336</v>
+        <v>359.1918727927244</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.1492033783251</v>
+        <v>324.9111045823457</v>
       </c>
       <c r="AD3" t="n">
-        <v>214234.1418337772</v>
+        <v>262520.3122452375</v>
       </c>
       <c r="AE3" t="n">
-        <v>293124.6042001336</v>
+        <v>359191.8727927245</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.841803294444273e-06</v>
+        <v>3.431139843355652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.313802083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>265149.2033783251</v>
+        <v>324911.1045823457</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.0921220984183</v>
+        <v>234.4635438558958</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.6194512599475</v>
+        <v>320.803364505013</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.3189281924165</v>
+        <v>290.1863416470997</v>
       </c>
       <c r="AD4" t="n">
-        <v>186092.1220984183</v>
+        <v>234463.5438558958</v>
       </c>
       <c r="AE4" t="n">
-        <v>254619.4512599474</v>
+        <v>320803.364505013</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.985536465018998e-06</v>
+        <v>3.698903838489333e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.71484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>230318.9281924165</v>
+        <v>290186.3416470997</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.3787426032644</v>
+        <v>224.5795721601498</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.329176910625</v>
+        <v>307.2796783808437</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.2970589739719</v>
+        <v>277.9533371460041</v>
       </c>
       <c r="AD5" t="n">
-        <v>176378.7426032644</v>
+        <v>224579.5721601497</v>
       </c>
       <c r="AE5" t="n">
-        <v>241329.176910625</v>
+        <v>307279.6783808437</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.05226216018186e-06</v>
+        <v>3.82320874767236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.4609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>218297.0589739719</v>
+        <v>277953.3371460041</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.5472512953743</v>
+        <v>223.7480808522596</v>
       </c>
       <c r="AB6" t="n">
-        <v>240.1914938203627</v>
+        <v>306.1419952905815</v>
       </c>
       <c r="AC6" t="n">
-        <v>217.2679547610957</v>
+        <v>276.9242329331279</v>
       </c>
       <c r="AD6" t="n">
-        <v>175547.2512953743</v>
+        <v>223748.0808522596</v>
       </c>
       <c r="AE6" t="n">
-        <v>240191.4938203627</v>
+        <v>306141.9952905815</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.059155893849955e-06</v>
+        <v>3.836051250630974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.44140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>217267.9547610957</v>
+        <v>276924.2329331279</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.9925813605722</v>
+        <v>228.3892639709872</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.7467669972276</v>
+        <v>312.4922667881696</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.720408883892</v>
+        <v>282.6684434316503</v>
       </c>
       <c r="AD2" t="n">
-        <v>183992.5813605722</v>
+        <v>228389.2639709872</v>
       </c>
       <c r="AE2" t="n">
-        <v>251746.7669972276</v>
+        <v>312492.2667881696</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.988833173535183e-06</v>
+        <v>3.986610835816648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>227720.408883892</v>
+        <v>282668.4434316503</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.5012476987116</v>
+        <v>194.8125894545549</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.9224467477309</v>
+        <v>266.5511794164752</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.2694974441553</v>
+        <v>241.1119089599747</v>
       </c>
       <c r="AD3" t="n">
-        <v>150501.2476987116</v>
+        <v>194812.589454555</v>
       </c>
       <c r="AE3" t="n">
-        <v>205922.4467477309</v>
+        <v>266551.1794164752</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.259763490283228e-06</v>
+        <v>4.52968993911776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186269.4974441553</v>
+        <v>241111.9089599747</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.9758170770042</v>
+        <v>195.2871588328476</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.5717735076338</v>
+        <v>267.2005061763782</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.8568533694291</v>
+        <v>241.6992648852486</v>
       </c>
       <c r="AD4" t="n">
-        <v>150975.8170770042</v>
+        <v>195287.1588328475</v>
       </c>
       <c r="AE4" t="n">
-        <v>206571.7735076338</v>
+        <v>267200.5061763782</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.259203506539479e-06</v>
+        <v>4.528567453184593e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.337239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>186856.8533694291</v>
+        <v>241699.2648852486</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.5170969628889</v>
+        <v>188.0980929903765</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.1029118257699</v>
+        <v>257.3641091315132</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.1008093638667</v>
+        <v>232.8016397688724</v>
       </c>
       <c r="AD2" t="n">
-        <v>145517.0969628889</v>
+        <v>188098.0929903765</v>
       </c>
       <c r="AE2" t="n">
-        <v>199102.9118257699</v>
+        <v>257364.1091315132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256430919291559e-06</v>
+        <v>4.720594595647346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.649739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>180100.8093638667</v>
+        <v>232801.6397688724</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.6714849608168</v>
+        <v>183.0818887877122</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.4729317112241</v>
+        <v>250.5007172421205</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.1035852462155</v>
+        <v>226.5932803685702</v>
       </c>
       <c r="AD3" t="n">
-        <v>140671.4849608168</v>
+        <v>183081.8887877122</v>
       </c>
       <c r="AE3" t="n">
-        <v>192472.9317112241</v>
+        <v>250500.7172421205</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3305917766305e-06</v>
+        <v>4.875743747065945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>174103.5852462155</v>
+        <v>226593.2803685702</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.2459634932558</v>
+        <v>174.3075043048313</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.3130056484253</v>
+        <v>238.4952172941255</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.9133082673012</v>
+        <v>215.7335684857829</v>
       </c>
       <c r="AD2" t="n">
-        <v>133245.9634932558</v>
+        <v>174307.5043048313</v>
       </c>
       <c r="AE2" t="n">
-        <v>182313.0056484253</v>
+        <v>238495.2172941255</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.363055535318213e-06</v>
+        <v>5.136941909943601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.55859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>164913.3082673012</v>
+        <v>215733.5684857829</v>
       </c>
     </row>
   </sheetData>
@@ -14045,28 +14045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.4721129089127</v>
+        <v>168.4363709270538</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.5177009052778</v>
+        <v>230.4620735905303</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.4802220820948</v>
+        <v>208.4670967426683</v>
       </c>
       <c r="AD2" t="n">
-        <v>130472.1129089127</v>
+        <v>168436.3709270539</v>
       </c>
       <c r="AE2" t="n">
-        <v>178517.7009052778</v>
+        <v>230462.0735905303</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31128050222189e-06</v>
+        <v>5.4974429947999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.294270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>161480.2220820948</v>
+        <v>208467.0967426683</v>
       </c>
     </row>
   </sheetData>
@@ -14342,28 +14342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.6432902191829</v>
+        <v>268.736404932351</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.6303720064838</v>
+        <v>367.697005041888</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.5568768536874</v>
+        <v>332.6045189466772</v>
       </c>
       <c r="AD2" t="n">
-        <v>222643.2902191829</v>
+        <v>268736.404932351</v>
       </c>
       <c r="AE2" t="n">
-        <v>304630.3720064837</v>
+        <v>367697.005041888</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.778832611846047e-06</v>
+        <v>3.451963779082649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>275556.8768536874</v>
+        <v>332604.5189466772</v>
       </c>
     </row>
     <row r="3">
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.3962100602198</v>
+        <v>214.4892352648335</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.4071237207555</v>
+        <v>293.4736342864325</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.4173912113422</v>
+        <v>265.4649225230546</v>
       </c>
       <c r="AD3" t="n">
-        <v>168396.2100602198</v>
+        <v>214489.2352648335</v>
       </c>
       <c r="AE3" t="n">
-        <v>230407.1237207555</v>
+        <v>293473.6342864325</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.104248636749596e-06</v>
+        <v>4.083459021310269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.6171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>208417.3912113422</v>
+        <v>265464.9225230545</v>
       </c>
     </row>
     <row r="4">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.1699107097012</v>
+        <v>206.0923437137227</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.1515380306678</v>
+        <v>281.9846368214979</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.2360228221991</v>
+        <v>255.0724188512604</v>
       </c>
       <c r="AD4" t="n">
-        <v>160169.9107097012</v>
+        <v>206092.3437137227</v>
       </c>
       <c r="AE4" t="n">
-        <v>219151.5380306678</v>
+        <v>281984.6368214979</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.18024797620165e-06</v>
+        <v>4.230941682284445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.350260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>198236.0228221992</v>
+        <v>255072.4188512604</v>
       </c>
     </row>
   </sheetData>
@@ -14851,28 +14851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.1921137253804</v>
+        <v>336.0410158999822</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.8982347351686</v>
+        <v>459.7861430376763</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.8321575955469</v>
+        <v>415.9047988600644</v>
       </c>
       <c r="AD2" t="n">
-        <v>276192.1137253804</v>
+        <v>336041.0158999822</v>
       </c>
       <c r="AE2" t="n">
-        <v>377898.2347351686</v>
+        <v>459786.1430376762</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531537593386515e-06</v>
+        <v>2.873765239025956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>341832.1575955469</v>
+        <v>415904.7988600644</v>
       </c>
     </row>
     <row r="3">
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.2831075048696</v>
+        <v>255.1451789753463</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.6138923733352</v>
+        <v>349.1008900847779</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.5461805399054</v>
+        <v>315.7831911013674</v>
       </c>
       <c r="AD3" t="n">
-        <v>207283.1075048696</v>
+        <v>255145.1789753463</v>
       </c>
       <c r="AE3" t="n">
-        <v>283613.8923733352</v>
+        <v>349100.8900847778</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.891190456991385e-06</v>
+        <v>3.548615077519589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>256546.1805399054</v>
+        <v>315783.1911013674</v>
       </c>
     </row>
     <row r="4">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.2575458403401</v>
+        <v>228.2048686568373</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.6363266203109</v>
+        <v>312.2399689844028</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.0977017639985</v>
+        <v>282.4402245761727</v>
       </c>
       <c r="AD4" t="n">
-        <v>180257.5458403401</v>
+        <v>228204.8686568373</v>
       </c>
       <c r="AE4" t="n">
-        <v>246636.326620311</v>
+        <v>312239.9689844028</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.027246471026604e-06</v>
+        <v>3.803909524997226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>223097.7017639985</v>
+        <v>282440.2245761727</v>
       </c>
     </row>
     <row r="5">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.2464543617489</v>
+        <v>220.023184977654</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.6751978348955</v>
+        <v>301.0454284241404</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.1826877258188</v>
+        <v>272.3140752553419</v>
       </c>
       <c r="AD5" t="n">
-        <v>172246.4543617489</v>
+        <v>220023.184977654</v>
       </c>
       <c r="AE5" t="n">
-        <v>235675.1978348955</v>
+        <v>301045.4284241404</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.080577581671971e-06</v>
+        <v>3.903979606589158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>213182.6877258188</v>
+        <v>272314.0752553419</v>
       </c>
     </row>
     <row r="6">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.4912664693742</v>
+        <v>220.2679970852793</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.0101605608961</v>
+        <v>301.3803911501411</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.4856820793732</v>
+        <v>272.6170696088963</v>
       </c>
       <c r="AD6" t="n">
-        <v>172491.2664693742</v>
+        <v>220267.9970852793</v>
       </c>
       <c r="AE6" t="n">
-        <v>236010.1605608961</v>
+        <v>301380.3911501411</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.080672476886642e-06</v>
+        <v>3.90415766723256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>213485.6820793732</v>
+        <v>272617.0696088963</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.5003432400977</v>
+        <v>171.1412046015818</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.0293033573822</v>
+        <v>234.1629463528574</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.4658049317548</v>
+        <v>211.8147634027677</v>
       </c>
       <c r="AD2" t="n">
-        <v>134500.3432400977</v>
+        <v>171141.2046015818</v>
       </c>
       <c r="AE2" t="n">
-        <v>184029.3033573822</v>
+        <v>234162.9463528574</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.152758747972722e-06</v>
+        <v>5.383886256826604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>166465.8049317548</v>
+        <v>211814.7634027677</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.6746737879735</v>
+        <v>197.9304616853446</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.6327124416208</v>
+        <v>270.8171897534544</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.4347833946304</v>
+        <v>244.9707772577771</v>
       </c>
       <c r="AD2" t="n">
-        <v>154674.6737879735</v>
+        <v>197930.4616853446</v>
       </c>
       <c r="AE2" t="n">
-        <v>211632.7124416208</v>
+        <v>270817.1897534545</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.161618316043754e-06</v>
+        <v>4.45138484099631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>191434.7833946304</v>
+        <v>244970.7772577771</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.3157209389857</v>
+        <v>187.4009166357646</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.4591361488968</v>
+        <v>256.4102016858836</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.6139133305402</v>
+        <v>231.9387719110359</v>
       </c>
       <c r="AD3" t="n">
-        <v>144315.7209389857</v>
+        <v>187400.9166357646</v>
       </c>
       <c r="AE3" t="n">
-        <v>197459.1361488968</v>
+        <v>256410.2016858836</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.301977712574565e-06</v>
+        <v>4.740424624463798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.389322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>178613.9133305402</v>
+        <v>231938.7719110359</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.8401639408592</v>
+        <v>237.9707341105244</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.8524198113658</v>
+        <v>325.6020569377075</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.6707151838432</v>
+        <v>294.5270536090265</v>
       </c>
       <c r="AD2" t="n">
-        <v>192840.1639408592</v>
+        <v>237970.7341105244</v>
       </c>
       <c r="AE2" t="n">
-        <v>263852.4198113658</v>
+        <v>325602.0569377075</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.915676255512744e-06</v>
+        <v>3.795307360741468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.548177083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>238670.7151838432</v>
+        <v>294527.0536090265</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.9214646562418</v>
+        <v>199.7961017707432</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.97038259523</v>
+        <v>273.3698408245272</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.7402267827023</v>
+        <v>247.2798068932958</v>
       </c>
       <c r="AD3" t="n">
-        <v>154921.4646562418</v>
+        <v>199796.1017707432</v>
       </c>
       <c r="AE3" t="n">
-        <v>211970.38259523</v>
+        <v>273369.8408245272</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.221090689851249e-06</v>
+        <v>4.400389585562055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.376302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191740.2267827023</v>
+        <v>247279.8068932958</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.8783856821076</v>
+        <v>198.7530227966091</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.5431959254238</v>
+        <v>271.942654154721</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.4492488055928</v>
+        <v>245.9888289161863</v>
       </c>
       <c r="AD4" t="n">
-        <v>153878.3856821076</v>
+        <v>198753.0227966091</v>
       </c>
       <c r="AE4" t="n">
-        <v>210543.1959254238</v>
+        <v>271942.654154721</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.231580585174465e-06</v>
+        <v>4.421171999510674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.337239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>190449.2488055929</v>
+        <v>245988.8289161864</v>
       </c>
     </row>
   </sheetData>
